--- a/docs/influence/auto/sadness/gw_full_nlp_n5-25_oter_sadness_NN.xlsx
+++ b/docs/influence/auto/sadness/gw_full_nlp_n5-25_oter_sadness_NN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/cat/Users/dend/prog/say_sila/docs/influence/auto/sadness/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{353EEA12-EE46-AF41-8F5C-FE90577C427B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{945E8B83-2B51-1046-BE72-98E2CE52C83D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62040" yWindow="8660" windowWidth="33920" windowHeight="16940"/>
+    <workbookView xWindow="7620" yWindow="12460" windowWidth="33940" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="gw_full_nlp_n5-25_oter_sadness_" sheetId="1" r:id="rId1"/>
@@ -943,7 +943,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD16"/>
+      <selection activeCell="A16" sqref="A12:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,13 +1033,13 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>-0.41461900000000002</v>
+        <v>-0.41601900000000003</v>
       </c>
       <c r="F2">
         <v>39</v>
       </c>
       <c r="W2">
-        <v>0.140179</v>
+        <v>0.13982800000000001</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1056,13 +1056,13 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>-0.40771299999999999</v>
+        <v>-0.40903</v>
       </c>
       <c r="F3">
         <v>39</v>
       </c>
       <c r="W3">
-        <v>0.14147299999999999</v>
+        <v>0.14111899999999999</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -1079,16 +1079,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>0.58041299999999996</v>
+        <v>0.58316500000000004</v>
       </c>
       <c r="F4">
         <v>39</v>
       </c>
       <c r="I4">
-        <v>0.56503000000000003</v>
+        <v>0.55584299999999998</v>
       </c>
       <c r="W4">
-        <v>4.8391999999999998E-2</v>
+        <v>4.9839000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -1105,16 +1105,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>0.56856700000000004</v>
+        <v>0.57341900000000001</v>
       </c>
       <c r="F5">
         <v>39</v>
       </c>
       <c r="I5">
-        <v>0.59416599999999997</v>
+        <v>0.59046799999999999</v>
       </c>
       <c r="W5">
-        <v>4.5294000000000001E-2</v>
+        <v>4.5751E-2</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -1131,22 +1131,22 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>0.66922000000000004</v>
+        <v>0.68600099999999997</v>
       </c>
       <c r="F6">
         <v>39</v>
       </c>
       <c r="I6">
-        <v>0.56183099999999997</v>
+        <v>0.55516399999999999</v>
       </c>
       <c r="O6">
-        <v>-4.4431999999999999E-2</v>
+        <v>-4.913E-2</v>
       </c>
       <c r="V6">
-        <v>4.4163000000000001E-2</v>
+        <v>4.7224000000000002E-2</v>
       </c>
       <c r="W6">
-        <v>5.3372999999999997E-2</v>
+        <v>5.4653E-2</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1163,16 +1163,22 @@
         <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>0.77289699999999995</v>
+        <v>0.74836499999999995</v>
       </c>
       <c r="F7" s="1">
         <v>39</v>
       </c>
       <c r="I7" s="1">
-        <v>0.574322</v>
+        <v>0.54785600000000001</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-3.3522000000000003E-2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>3.4977000000000001E-2</v>
       </c>
       <c r="W7" s="1">
-        <v>5.3081000000000003E-2</v>
+        <v>5.6771000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1189,25 +1195,22 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>0.74992099999999995</v>
+        <v>0.76780300000000001</v>
       </c>
       <c r="F8" s="1">
         <v>39</v>
       </c>
       <c r="I8" s="1">
-        <v>0.51541099999999995</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.121103</v>
+        <v>0.50969600000000004</v>
       </c>
       <c r="O8" s="1">
-        <v>-3.5623000000000002E-2</v>
+        <v>-3.7809000000000002E-2</v>
       </c>
       <c r="V8" s="1">
-        <v>3.6476000000000001E-2</v>
+        <v>3.6735999999999998E-2</v>
       </c>
       <c r="W8" s="1">
-        <v>4.0644E-2</v>
+        <v>6.4167000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1224,25 +1227,22 @@
         <v>25</v>
       </c>
       <c r="E9" s="1">
-        <v>0.74913300000000005</v>
+        <v>0.78406699999999996</v>
       </c>
       <c r="F9" s="1">
         <v>39</v>
       </c>
       <c r="I9" s="1">
-        <v>0.47187699999999999</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.113013</v>
+        <v>0.47076099999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>-3.4114999999999999E-2</v>
+        <v>-3.8622999999999998E-2</v>
       </c>
       <c r="V9" s="1">
-        <v>3.4604999999999997E-2</v>
+        <v>3.5596000000000003E-2</v>
       </c>
       <c r="W9" s="1">
-        <v>5.0208000000000003E-2</v>
+        <v>7.1776999999999994E-2</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1259,25 +1259,22 @@
         <v>25</v>
       </c>
       <c r="E10" s="1">
-        <v>0.781671</v>
+        <v>0.78273400000000004</v>
       </c>
       <c r="F10" s="1">
         <v>39</v>
       </c>
       <c r="I10" s="1">
-        <v>0.41563099999999997</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.14075299999999999</v>
+        <v>0.41266999999999998</v>
       </c>
       <c r="O10" s="1">
-        <v>-3.5539000000000001E-2</v>
+        <v>-3.7879999999999997E-2</v>
       </c>
       <c r="V10" s="1">
-        <v>3.3951000000000002E-2</v>
+        <v>3.3940999999999999E-2</v>
       </c>
       <c r="W10" s="1">
-        <v>5.7973999999999998E-2</v>
+        <v>8.3690000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1294,60 +1291,54 @@
         <v>25</v>
       </c>
       <c r="E11" s="1">
-        <v>0.782026</v>
+        <v>0.78228299999999995</v>
       </c>
       <c r="F11" s="1">
         <v>39</v>
       </c>
       <c r="I11" s="1">
-        <v>0.41758499999999998</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.139047</v>
+        <v>0.41337499999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>-3.4992000000000002E-2</v>
+        <v>-3.6735999999999998E-2</v>
       </c>
       <c r="V11" s="1">
-        <v>3.3214E-2</v>
+        <v>3.3516999999999998E-2</v>
       </c>
       <c r="W11" s="1">
-        <v>5.8241000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+        <v>8.3447999999999994E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.79910400000000004</v>
-      </c>
-      <c r="F12" s="1">
-        <v>39</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.37353500000000001</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.14555899999999999</v>
-      </c>
-      <c r="O12" s="1">
-        <v>-4.5262999999999998E-2</v>
-      </c>
-      <c r="V12" s="1">
-        <v>4.4037E-2</v>
-      </c>
-      <c r="W12" s="1">
-        <v>6.4561999999999994E-2</v>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.81335500000000005</v>
+      </c>
+      <c r="F12" s="2">
+        <v>39</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.37064999999999998</v>
+      </c>
+      <c r="O12" s="2">
+        <v>-4.5975000000000002E-2</v>
+      </c>
+      <c r="V12" s="2">
+        <v>4.3434E-2</v>
+      </c>
+      <c r="W12" s="2">
+        <v>9.0329000000000007E-2</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1364,25 +1355,22 @@
         <v>25</v>
       </c>
       <c r="E13" s="2">
-        <v>0.83979199999999998</v>
+        <v>0.840333</v>
       </c>
       <c r="F13" s="2">
         <v>39</v>
       </c>
       <c r="I13" s="2">
-        <v>0.41564899999999999</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.143678</v>
+        <v>0.41127399999999997</v>
       </c>
       <c r="O13" s="2">
-        <v>-5.3407000000000003E-2</v>
+        <v>-5.3092E-2</v>
       </c>
       <c r="V13" s="2">
-        <v>3.9071000000000002E-2</v>
+        <v>4.1369999999999997E-2</v>
       </c>
       <c r="W13" s="2">
-        <v>6.4002000000000003E-2</v>
+        <v>8.8700000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1399,25 +1387,22 @@
         <v>25</v>
       </c>
       <c r="E14" s="2">
-        <v>0.84877800000000003</v>
+        <v>0.84452400000000005</v>
       </c>
       <c r="F14" s="2">
         <v>39</v>
       </c>
       <c r="I14" s="2">
-        <v>0.42964000000000002</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.14841599999999999</v>
+        <v>0.42218800000000001</v>
       </c>
       <c r="O14" s="2">
-        <v>-6.4159999999999995E-2</v>
+        <v>-5.7384999999999999E-2</v>
       </c>
       <c r="V14" s="2">
-        <v>3.7534999999999999E-2</v>
+        <v>3.8760999999999997E-2</v>
       </c>
       <c r="W14" s="2">
-        <v>6.5050999999999998E-2</v>
+        <v>8.8909000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1434,25 +1419,22 @@
         <v>25</v>
       </c>
       <c r="E15" s="2">
-        <v>0.82224200000000003</v>
+        <v>0.82120300000000002</v>
       </c>
       <c r="F15" s="2">
         <v>39</v>
       </c>
       <c r="I15" s="2">
-        <v>0.40583200000000003</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.16331300000000001</v>
+        <v>0.39976</v>
       </c>
       <c r="O15" s="2">
-        <v>-6.5017000000000005E-2</v>
+        <v>-4.8315999999999998E-2</v>
       </c>
       <c r="V15" s="2">
-        <v>3.7270999999999999E-2</v>
+        <v>3.6372000000000002E-2</v>
       </c>
       <c r="W15" s="2">
-        <v>6.6598000000000004E-2</v>
+        <v>9.1134999999999994E-2</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1469,25 +1451,22 @@
         <v>25</v>
       </c>
       <c r="E16" s="2">
-        <v>0.81246200000000002</v>
+        <v>0.81573099999999998</v>
       </c>
       <c r="F16" s="2">
         <v>39</v>
       </c>
       <c r="I16" s="2">
-        <v>0.37448100000000001</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.13041700000000001</v>
+        <v>0.36932300000000001</v>
       </c>
       <c r="O16" s="2">
-        <v>-6.4825999999999995E-2</v>
+        <v>-5.4056E-2</v>
       </c>
       <c r="V16" s="2">
-        <v>3.8793000000000001E-2</v>
+        <v>3.9211000000000003E-2</v>
       </c>
       <c r="W16" s="2">
-        <v>7.7063000000000006E-2</v>
+        <v>9.6724000000000004E-2</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1504,25 +1483,22 @@
         <v>25</v>
       </c>
       <c r="E17" s="1">
-        <v>0.79804200000000003</v>
+        <v>0.799898</v>
       </c>
       <c r="F17" s="1">
         <v>39</v>
       </c>
       <c r="I17" s="1">
-        <v>0.35380699999999998</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0.143815</v>
+        <v>0.34750300000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>-6.7089999999999997E-2</v>
+        <v>-5.5488999999999997E-2</v>
       </c>
       <c r="V17" s="1">
-        <v>4.1713E-2</v>
+        <v>4.1530999999999998E-2</v>
       </c>
       <c r="W17" s="1">
-        <v>7.7807000000000001E-2</v>
+        <v>9.9978999999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1539,25 +1515,22 @@
         <v>25</v>
       </c>
       <c r="E18" s="1">
-        <v>0.75288900000000003</v>
+        <v>0.77739999999999998</v>
       </c>
       <c r="F18" s="1">
         <v>39</v>
       </c>
       <c r="I18" s="1">
-        <v>0.31494</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0.12703900000000001</v>
+        <v>0.31537700000000002</v>
       </c>
       <c r="O18" s="1">
-        <v>-6.7052E-2</v>
+        <v>-5.8539000000000001E-2</v>
       </c>
       <c r="V18" s="1">
-        <v>4.0571000000000003E-2</v>
+        <v>4.1090000000000002E-2</v>
       </c>
       <c r="W18" s="1">
-        <v>8.6859000000000006E-2</v>
+        <v>0.105771</v>
       </c>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1574,25 +1547,22 @@
         <v>25</v>
       </c>
       <c r="E19" s="1">
-        <v>0.71166099999999999</v>
+        <v>0.75161999999999995</v>
       </c>
       <c r="F19" s="1">
         <v>39</v>
       </c>
       <c r="I19" s="1">
-        <v>0.28465400000000002</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0.124582</v>
+        <v>0.28484799999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>-7.0755999999999999E-2</v>
+        <v>-6.2826999999999994E-2</v>
       </c>
       <c r="V19" s="1">
-        <v>4.0146000000000001E-2</v>
+        <v>4.0587999999999999E-2</v>
       </c>
       <c r="W19" s="1">
-        <v>9.2896000000000006E-2</v>
+        <v>0.111709</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1609,22 +1579,22 @@
         <v>25</v>
       </c>
       <c r="E20" s="1">
-        <v>0.74304300000000001</v>
+        <v>0.75198699999999996</v>
       </c>
       <c r="F20" s="1">
         <v>39</v>
       </c>
       <c r="I20" s="1">
-        <v>0.294937</v>
+        <v>0.29443000000000003</v>
       </c>
       <c r="O20" s="1">
-        <v>-6.1485999999999999E-2</v>
+        <v>-6.4113000000000003E-2</v>
       </c>
       <c r="V20" s="1">
-        <v>3.721E-2</v>
+        <v>3.8629999999999998E-2</v>
       </c>
       <c r="W20" s="1">
-        <v>0.11271100000000001</v>
+        <v>0.11269999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1641,54 +1611,54 @@
         <v>25</v>
       </c>
       <c r="E21" s="1">
-        <v>0.72736100000000004</v>
+        <v>0.741367</v>
       </c>
       <c r="F21" s="1">
         <v>39</v>
       </c>
       <c r="I21" s="1">
-        <v>0.300147</v>
+        <v>0.29994399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>-5.7451000000000002E-2</v>
+        <v>-6.0565000000000001E-2</v>
       </c>
       <c r="V21" s="1">
-        <v>3.5069000000000003E-2</v>
+        <v>3.6544E-2</v>
       </c>
       <c r="W21" s="1">
-        <v>0.113486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>0.69627799999999995</v>
-      </c>
-      <c r="F22">
-        <v>39</v>
-      </c>
-      <c r="I22">
-        <v>0.28435300000000002</v>
-      </c>
-      <c r="O22">
-        <v>-6.3712000000000005E-2</v>
-      </c>
-      <c r="V22">
-        <v>3.5553000000000001E-2</v>
-      </c>
-      <c r="W22">
-        <v>0.115053</v>
+        <v>0.11351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.71314599999999995</v>
+      </c>
+      <c r="F22" s="1">
+        <v>39</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.28428999999999999</v>
+      </c>
+      <c r="O22" s="1">
+        <v>-6.7329E-2</v>
+      </c>
+      <c r="V22" s="1">
+        <v>3.7138999999999998E-2</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.11511200000000001</v>
       </c>
     </row>
   </sheetData>
